--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1916891.56499633</v>
+        <v>1876928.282057137</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>326308.9069279822</v>
+        <v>191950.2097934249</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478714</v>
+        <v>8362709.488478713</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7782527.167642255</v>
+        <v>7782527.167642256</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C2" t="n">
-        <v>190.1066023865956</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>200.160833108852</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>28.2202609802234</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>181.9426575705668</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30.24678523090114</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,16 +983,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>55.17086470746975</v>
+        <v>70.09702167014655</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1025,10 +1025,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1135,28 +1135,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>47.11353018715725</v>
-      </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>72.47049842454874</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.86155971440646</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>20.97956913990911</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>309.9462134685593</v>
       </c>
       <c r="C11" t="n">
-        <v>324.0832253933006</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.64958867533</v>
+        <v>100.8367104035708</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T12" t="n">
-        <v>149.3102327444246</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U12" t="n">
         <v>225.8957288909827</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>71.25280406479364</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>157.0547409226243</v>
       </c>
       <c r="I13" t="n">
-        <v>137.955174638333</v>
+        <v>116.1776229325296</v>
       </c>
       <c r="J13" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>121.1558219313226</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
         <v>179.4658614532381</v>
@@ -1666,13 +1666,13 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>143.7652209048246</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1736,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
-        <v>149.3102327444246</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.8957288909827</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>223.3170660977949</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1773,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>71.25280406479386</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>126.6360092824242</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1849,13 +1849,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>357.283270468815</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>414.005789270132</v>
@@ -1897,22 +1897,22 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>59.7604248914646</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1934,13 +1934,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>3.722778175975093</v>
       </c>
       <c r="G18" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S19" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>209.3053109272533</v>
       </c>
       <c r="V19" t="n">
-        <v>146.5623749521075</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>327.182295784086</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>160.4752923549255</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>179.7864942438954</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>65.50479675552441</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T21" t="n">
-        <v>149.3102327444246</v>
+        <v>175.6262265852954</v>
       </c>
       <c r="U21" t="n">
         <v>225.8957288909827</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>7.474574650667191</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>187.4835994426807</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>212.401165489907</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>383.3277216610673</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2402,19 +2402,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>144.3232208374472</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>85.66304698508944</v>
       </c>
       <c r="G24" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
         <v>65.50479675552441</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>158.7937537960548</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,19 +2487,19 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>71.25280406479364</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>35.18734422379109</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>399.9176354995587</v>
       </c>
       <c r="H26" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>217.4184586216305</v>
@@ -2614,13 +2614,13 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>72.63609202313059</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>158.7937537960548</v>
+        <v>122.9808755242954</v>
       </c>
       <c r="T27" t="n">
         <v>197.3677099213027</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2757,16 +2757,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.44704598407326</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>183.4401280146811</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>150.7617616219096</v>
       </c>
     </row>
     <row r="29">
@@ -2794,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>57.79326928727863</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.005789270132</v>
+        <v>405.6534993718764</v>
       </c>
       <c r="H29" t="n">
         <v>326.1924309016296</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2885,13 +2885,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S30" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T30" t="n">
-        <v>99.9762656141835</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U30" t="n">
         <v>225.8957288909827</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.6042988473627</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>108.3027291048317</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>86.05385692198521</v>
       </c>
       <c r="D32" t="n">
-        <v>99.77211149561261</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3110,10 +3110,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>56.22893659596764</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S33" t="n">
         <v>158.7937537960548</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139.7552559143493</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>180.3585974057383</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,7 +3283,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1924309016296</v>
+        <v>122.8433279771911</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>122.7156494998282</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3359,10 +3359,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>158.7937537960548</v>
+        <v>17.44731957864654</v>
       </c>
       <c r="T36" t="n">
         <v>197.3677099213027</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>132.3661152307035</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>187.4835994426807</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>324.0832253933015</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>396.8639568534536</v>
       </c>
       <c r="H38" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>160.4752923549255</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3584,22 +3584,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>144.3232208374472</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.64958867533</v>
+        <v>45.43345970665899</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
         <v>65.50479675552441</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>41.90757898338455</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>142.3224937174977</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3748,10 +3748,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>160.3464122475374</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>102.7113352232391</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3833,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T42" t="n">
-        <v>149.3102327444246</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U42" t="n">
         <v>225.8957288909827</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>222.4851977903267</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>223.4067624819484</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>357.3832557940847</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>116.8751952470931</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4061,13 +4061,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>28.58965000103594</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>136.64958867533</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T45" t="n">
-        <v>149.3102327444246</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U45" t="n">
         <v>225.8957288909827</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>41.89609790246498</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>60.44004306805706</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233.7108255783361</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C2" t="n">
-        <v>41.68395448076474</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D2" t="n">
-        <v>41.68395448076474</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E2" t="n">
-        <v>41.68395448076474</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>248.9911026845557</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>233.5337920632072</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>233.5337920632072</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y2" t="n">
-        <v>477.1596022224361</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>370.2385984713777</v>
+        <v>284.787934186969</v>
       </c>
       <c r="C3" t="n">
-        <v>370.2385984713777</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D3" t="n">
-        <v>370.2385984713777</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E3" t="n">
-        <v>370.2385984713777</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4415,16 +4415,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>935.5518413891984</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>935.5518413891984</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>935.5518413891984</v>
       </c>
       <c r="U3" t="n">
-        <v>761.8705608694022</v>
+        <v>935.5518413891984</v>
       </c>
       <c r="V3" t="n">
-        <v>761.8705608694022</v>
+        <v>700.3997331574558</v>
       </c>
       <c r="W3" t="n">
-        <v>578.0900986769104</v>
+        <v>700.3997331574558</v>
       </c>
       <c r="X3" t="n">
-        <v>370.2385984713777</v>
+        <v>492.5482329519229</v>
       </c>
       <c r="Y3" t="n">
-        <v>370.2385984713777</v>
+        <v>284.787934186969</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.68395448076474</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C5" t="n">
-        <v>41.68395448076474</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>41.68395448076474</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>41.68395448076474</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W5" t="n">
-        <v>559.1338160830064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X5" t="n">
-        <v>315.6850394389064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.23626279480629</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>279.432186667424</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C6" t="n">
-        <v>279.432186667424</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="D6" t="n">
-        <v>279.432186667424</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="E6" t="n">
-        <v>279.432186667424</v>
+        <v>327.6745352730444</v>
       </c>
       <c r="F6" t="n">
-        <v>279.432186667424</v>
+        <v>181.1399772999294</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4649,16 +4649,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>279.432186667424</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>279.432186667424</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>325.7766548071333</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C8" t="n">
-        <v>82.32787816303323</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D8" t="n">
-        <v>82.32787816303323</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E8" t="n">
-        <v>82.32787816303323</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>569.2254314512334</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>325.7766548071333</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>485.7295981386596</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>326.4921431332041</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>179.9575851600891</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>41.22675974270462</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>234.810827406191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>259.0600686093459</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W9" t="n">
-        <v>259.0600686093459</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X9" t="n">
-        <v>51.20856840381305</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="Y9" t="n">
-        <v>51.20856840381305</v>
+        <v>634.6640077999109</v>
       </c>
     </row>
     <row r="10">
@@ -4995,16 +4995,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
         <v>19.28114311021272</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2440.987626628164</v>
+        <v>803.5705220712192</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.630833301597</v>
+        <v>434.6080051308075</v>
       </c>
       <c r="D11" t="n">
-        <v>1755.365134694847</v>
+        <v>434.6080051308075</v>
       </c>
       <c r="E11" t="n">
-        <v>1369.576882096602</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F11" t="n">
-        <v>958.5909773069948</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G11" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H11" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I11" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J11" t="n">
         <v>145.9660485697318</v>
       </c>
       <c r="K11" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540045</v>
+        <v>795.005298154005</v>
       </c>
       <c r="M11" t="n">
-        <v>1237.436361307048</v>
+        <v>1237.436361307049</v>
       </c>
       <c r="N11" t="n">
         <v>1672.394424063531</v>
@@ -5059,34 +5059,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P11" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q11" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S11" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.618379962291</v>
       </c>
       <c r="T11" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.618379962291</v>
       </c>
       <c r="U11" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.618379962291</v>
       </c>
       <c r="V11" t="n">
-        <v>2440.987626628164</v>
+        <v>1859.55549261872</v>
       </c>
       <c r="W11" t="n">
-        <v>2440.987626628164</v>
+        <v>1506.786837348606</v>
       </c>
       <c r="X11" t="n">
-        <v>2440.987626628164</v>
+        <v>1506.786837348606</v>
       </c>
       <c r="Y11" t="n">
-        <v>2440.987626628164</v>
+        <v>1116.647505372794</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.7751048338188</v>
+        <v>779.834467487422</v>
       </c>
       <c r="C12" t="n">
-        <v>814.3220755526918</v>
+        <v>605.381438206295</v>
       </c>
       <c r="D12" t="n">
-        <v>665.3876658914405</v>
+        <v>456.4470285450437</v>
       </c>
       <c r="E12" t="n">
-        <v>506.150210885985</v>
+        <v>297.2095735395882</v>
       </c>
       <c r="F12" t="n">
-        <v>359.6156529128699</v>
+        <v>150.6750155664732</v>
       </c>
       <c r="G12" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I12" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J12" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K12" t="n">
-        <v>285.1110033225003</v>
+        <v>339.8150790146477</v>
       </c>
       <c r="L12" t="n">
-        <v>664.2381464478935</v>
+        <v>718.9422221400409</v>
       </c>
       <c r="M12" t="n">
-        <v>1158.640861843456</v>
+        <v>1213.344937535604</v>
       </c>
       <c r="N12" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O12" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
@@ -5147,25 +5147,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S12" t="n">
-        <v>2440.987626628164</v>
+        <v>2280.589895521038</v>
       </c>
       <c r="T12" t="n">
-        <v>2290.169209714603</v>
+        <v>2081.228572368207</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.991705784318</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.839597552575</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.602240824373</v>
+        <v>1363.661603477977</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.750740618841</v>
+        <v>1155.810103272444</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.990441853887</v>
+        <v>948.0498045074901</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="C13" t="n">
-        <v>640.638169680758</v>
+        <v>471.7019867528513</v>
       </c>
       <c r="D13" t="n">
-        <v>640.638169680758</v>
+        <v>471.7019867528513</v>
       </c>
       <c r="E13" t="n">
-        <v>640.638169680758</v>
+        <v>471.7019867528513</v>
       </c>
       <c r="F13" t="n">
-        <v>568.6656403223806</v>
+        <v>324.8120392549409</v>
       </c>
       <c r="G13" t="n">
-        <v>399.5654251458267</v>
+        <v>324.8120392549409</v>
       </c>
       <c r="H13" t="n">
-        <v>240.9242726987314</v>
+        <v>166.1708868078457</v>
       </c>
       <c r="I13" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J13" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K13" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L13" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M13" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N13" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O13" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1267.631526924731</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="C14" t="n">
-        <v>898.669009984319</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D14" t="n">
-        <v>540.4033113775685</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E14" t="n">
-        <v>540.4033113775685</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F14" t="n">
-        <v>540.4033113775685</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G14" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H14" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K14" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5302,28 +5302,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S14" t="n">
-        <v>2259.7089786956</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T14" t="n">
-        <v>2040.094374027286</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U14" t="n">
-        <v>1786.314680039169</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V14" t="n">
-        <v>1641.097285185811</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="W14" t="n">
-        <v>1641.097285185811</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="X14" t="n">
-        <v>1267.631526924731</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="Y14" t="n">
-        <v>1267.631526924731</v>
+        <v>1386.161193962289</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K15" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L15" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M15" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N15" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O15" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P15" t="n">
         <v>2283.899498973758</v>
@@ -5384,13 +5384,13 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S15" t="n">
-        <v>2440.987626628164</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T15" t="n">
-        <v>2290.169209714603</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.991705784318</v>
+        <v>2052.412391590752</v>
       </c>
       <c r="V15" t="n">
         <v>1826.839597552575</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>640.6381696807582</v>
+        <v>512.7230087894206</v>
       </c>
       <c r="C16" t="n">
-        <v>640.6381696807582</v>
+        <v>512.7230087894206</v>
       </c>
       <c r="D16" t="n">
-        <v>640.6381696807582</v>
+        <v>512.7230087894206</v>
       </c>
       <c r="E16" t="n">
-        <v>640.6381696807582</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="F16" t="n">
-        <v>568.6656403223806</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G16" t="n">
-        <v>399.5654251458267</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H16" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I16" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J16" t="n">
         <v>48.81975253256327</v>
@@ -5469,19 +5469,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U16" t="n">
-        <v>640.6381696807582</v>
+        <v>512.7230087894206</v>
       </c>
       <c r="V16" t="n">
-        <v>640.6381696807582</v>
+        <v>512.7230087894206</v>
       </c>
       <c r="W16" t="n">
-        <v>640.6381696807582</v>
+        <v>512.7230087894206</v>
       </c>
       <c r="X16" t="n">
-        <v>640.6381696807582</v>
+        <v>512.7230087894206</v>
       </c>
       <c r="Y16" t="n">
-        <v>640.6381696807582</v>
+        <v>512.7230087894206</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1717.224081305859</v>
+        <v>1409.052095095974</v>
       </c>
       <c r="C17" t="n">
-        <v>1348.261564365448</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="D17" t="n">
-        <v>989.9958657586972</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="E17" t="n">
-        <v>629.1036733659547</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="F17" t="n">
         <v>629.1036733659547</v>
@@ -5545,22 +5545,22 @@
         <v>2190.61837996229</v>
       </c>
       <c r="T17" t="n">
-        <v>1971.003775293977</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="U17" t="n">
-        <v>1717.224081305859</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="V17" t="n">
-        <v>1717.224081305859</v>
+        <v>1859.55549261872</v>
       </c>
       <c r="W17" t="n">
-        <v>1717.224081305859</v>
+        <v>1799.191427071786</v>
       </c>
       <c r="X17" t="n">
-        <v>1717.224081305859</v>
+        <v>1799.191427071786</v>
       </c>
       <c r="Y17" t="n">
-        <v>1717.224081305859</v>
+        <v>1409.052095095974</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C18" t="n">
-        <v>547.7315422628061</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D18" t="n">
-        <v>398.7971326015548</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E18" t="n">
-        <v>239.5596775960993</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F18" t="n">
-        <v>93.02511962298431</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G18" t="n">
-        <v>48.81975253256327</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H18" t="n">
         <v>48.81975253256327</v>
@@ -5597,16 +5597,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K18" t="n">
-        <v>174.1773125904007</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L18" t="n">
-        <v>553.3044557157939</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M18" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N18" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O18" t="n">
         <v>1970.07121469245</v>
@@ -5618,28 +5618,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S18" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T18" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U18" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V18" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W18" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X18" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y18" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="19">
@@ -5697,16 +5697,16 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R19" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S19" t="n">
-        <v>424.5997883913116</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="T19" t="n">
-        <v>196.8625555144901</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="U19" t="n">
-        <v>196.8625555144901</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="V19" t="n">
         <v>48.81975253256327</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1674.866397363912</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="C20" t="n">
-        <v>1674.866397363912</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="D20" t="n">
-        <v>1674.866397363912</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="E20" t="n">
-        <v>1289.078144765668</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="F20" t="n">
-        <v>958.5909773069948</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G20" t="n">
-        <v>540.4033113775685</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H20" t="n">
         <v>210.9160074365284</v>
@@ -5752,19 +5752,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J20" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K20" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N20" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O20" t="n">
         <v>2037.925350935285</v>
@@ -5776,28 +5776,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R20" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S20" t="n">
-        <v>2259.7089786956</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T20" t="n">
-        <v>2259.7089786956</v>
+        <v>2190.294508456576</v>
       </c>
       <c r="U20" t="n">
-        <v>2005.929284707482</v>
+        <v>2190.294508456576</v>
       </c>
       <c r="V20" t="n">
-        <v>1674.866397363912</v>
+        <v>2190.294508456576</v>
       </c>
       <c r="W20" t="n">
-        <v>1674.866397363912</v>
+        <v>2190.294508456576</v>
       </c>
       <c r="X20" t="n">
-        <v>1674.866397363912</v>
+        <v>1816.828750195496</v>
       </c>
       <c r="Y20" t="n">
-        <v>1674.866397363912</v>
+        <v>1426.689418219684</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.7751048338188</v>
+        <v>744.1456658227286</v>
       </c>
       <c r="C21" t="n">
-        <v>814.3220755526918</v>
+        <v>569.6926365416016</v>
       </c>
       <c r="D21" t="n">
-        <v>665.3876658914405</v>
+        <v>420.7582268803504</v>
       </c>
       <c r="E21" t="n">
-        <v>506.150210885985</v>
+        <v>261.5207718748949</v>
       </c>
       <c r="F21" t="n">
-        <v>359.6156529128699</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="G21" t="n">
-        <v>221.5857653620315</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H21" t="n">
         <v>114.9862139017798</v>
@@ -5834,13 +5834,13 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K21" t="n">
-        <v>161.1406371339193</v>
+        <v>339.8150790146477</v>
       </c>
       <c r="L21" t="n">
-        <v>540.2677802593125</v>
+        <v>718.9422221400409</v>
       </c>
       <c r="M21" t="n">
-        <v>1034.670495654875</v>
+        <v>1213.344937535604</v>
       </c>
       <c r="N21" t="n">
         <v>1557.865593173221</v>
@@ -5855,28 +5855,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R21" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S21" t="n">
-        <v>2440.987626628164</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T21" t="n">
-        <v>2290.169209714603</v>
+        <v>2045.539770703513</v>
       </c>
       <c r="U21" t="n">
-        <v>2061.991705784318</v>
+        <v>1817.362266773227</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.839597552575</v>
+        <v>1582.210158541485</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.602240824373</v>
+        <v>1327.972801813283</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.750740618841</v>
+        <v>1120.12130160775</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.990441853887</v>
+        <v>912.3610028427966</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1849.169209479969</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="C22" t="n">
-        <v>1849.169209479969</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="D22" t="n">
-        <v>1849.169209479969</v>
+        <v>482.9714548637081</v>
       </c>
       <c r="E22" t="n">
-        <v>1849.169209479969</v>
+        <v>335.058361281315</v>
       </c>
       <c r="F22" t="n">
-        <v>1849.169209479969</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="G22" t="n">
-        <v>1849.169209479969</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H22" t="n">
-        <v>1849.169209479969</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I22" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J22" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K22" t="n">
-        <v>1894.037176271117</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L22" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M22" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N22" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O22" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P22" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q22" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R22" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S22" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T22" t="n">
-        <v>2440.987626628164</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="U22" t="n">
-        <v>2440.987626628164</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="V22" t="n">
-        <v>2440.987626628164</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="W22" t="n">
-        <v>2440.987626628164</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="X22" t="n">
-        <v>2251.610253453739</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="Y22" t="n">
-        <v>2030.817674310208</v>
+        <v>633.0880942760439</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1714.753213096969</v>
+        <v>1092.539955059584</v>
       </c>
       <c r="C23" t="n">
-        <v>1345.790696156558</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="D23" t="n">
-        <v>1345.790696156558</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E23" t="n">
-        <v>1345.790696156558</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F23" t="n">
-        <v>958.5909773069948</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G23" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H23" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I23" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K23" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L23" t="n">
         <v>795.0052981540045</v>
@@ -6007,7 +6007,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P23" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q23" t="n">
         <v>2440.987626628164</v>
@@ -6022,19 +6022,19 @@
         <v>2440.987626628164</v>
       </c>
       <c r="U23" t="n">
-        <v>2440.987626628164</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V23" t="n">
-        <v>2440.987626628164</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="W23" t="n">
-        <v>2088.218971358049</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="X23" t="n">
-        <v>1714.753213096969</v>
+        <v>1482.679287035396</v>
       </c>
       <c r="Y23" t="n">
-        <v>1714.753213096969</v>
+        <v>1092.539955059584</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C24" t="n">
-        <v>547.7315422628061</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D24" t="n">
-        <v>398.7971326015548</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="E24" t="n">
-        <v>253.0161014526182</v>
+        <v>446.143983200839</v>
       </c>
       <c r="F24" t="n">
-        <v>253.0161014526182</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G24" t="n">
-        <v>114.9862139017798</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H24" t="n">
         <v>114.9862139017798</v>
@@ -6068,13 +6068,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K24" t="n">
-        <v>174.1773125904007</v>
+        <v>310.3046743909634</v>
       </c>
       <c r="L24" t="n">
-        <v>540.2677802593126</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M24" t="n">
         <v>1034.670495654875</v>
@@ -6092,28 +6092,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R24" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S24" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T24" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U24" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V24" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W24" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X24" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y24" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>640.638169680758</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="C25" t="n">
-        <v>640.638169680758</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D25" t="n">
-        <v>640.638169680758</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E25" t="n">
-        <v>640.638169680758</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F25" t="n">
-        <v>568.6656403223806</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G25" t="n">
-        <v>399.5654251458267</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H25" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I25" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J25" t="n">
         <v>48.81975253256327</v>
@@ -6156,43 +6156,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M25" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N25" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O25" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S25" t="n">
-        <v>640.638169680758</v>
+        <v>605.0953977375349</v>
       </c>
       <c r="T25" t="n">
-        <v>640.638169680758</v>
+        <v>377.3581648607134</v>
       </c>
       <c r="U25" t="n">
-        <v>640.638169680758</v>
+        <v>377.3581648607134</v>
       </c>
       <c r="V25" t="n">
-        <v>640.638169680758</v>
+        <v>377.3581648607134</v>
       </c>
       <c r="W25" t="n">
-        <v>640.638169680758</v>
+        <v>377.3581648607134</v>
       </c>
       <c r="X25" t="n">
-        <v>640.638169680758</v>
+        <v>377.3581648607134</v>
       </c>
       <c r="Y25" t="n">
-        <v>640.638169680758</v>
+        <v>377.3581648607134</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>926.1915639758126</v>
+        <v>1207.527729646531</v>
       </c>
       <c r="C26" t="n">
-        <v>926.1915639758126</v>
+        <v>838.5652127061194</v>
       </c>
       <c r="D26" t="n">
-        <v>926.1915639758126</v>
+        <v>838.5652127061194</v>
       </c>
       <c r="E26" t="n">
-        <v>540.4033113775685</v>
+        <v>452.7769601078751</v>
       </c>
       <c r="F26" t="n">
-        <v>540.4033113775685</v>
+        <v>452.7769601078751</v>
       </c>
       <c r="G26" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H26" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I26" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J26" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K26" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M26" t="n">
         <v>1237.436361307048</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S26" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T26" t="n">
-        <v>1971.003775293977</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U26" t="n">
-        <v>1717.224081305859</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V26" t="n">
-        <v>1386.161193962289</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="W26" t="n">
-        <v>1312.791404039934</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="X26" t="n">
-        <v>1312.791404039934</v>
+        <v>1594.127569710653</v>
       </c>
       <c r="Y26" t="n">
-        <v>1312.791404039934</v>
+        <v>1594.127569710653</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>722.1845715439331</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C27" t="n">
-        <v>547.7315422628061</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D27" t="n">
-        <v>398.7971326015548</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E27" t="n">
-        <v>239.5596775960993</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F27" t="n">
-        <v>93.02511962298431</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G27" t="n">
         <v>48.81975253256327</v>
@@ -6308,16 +6308,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K27" t="n">
-        <v>285.1110033225003</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L27" t="n">
-        <v>664.2381464478935</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N27" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O27" t="n">
         <v>1970.07121469245</v>
@@ -6329,28 +6329,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S27" t="n">
-        <v>2222.939999577549</v>
+        <v>2316.764520037966</v>
       </c>
       <c r="T27" t="n">
-        <v>2023.578676424718</v>
+        <v>2117.403196885135</v>
       </c>
       <c r="U27" t="n">
-        <v>1795.401172494432</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V27" t="n">
-        <v>1560.249064262689</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W27" t="n">
-        <v>1306.011707534488</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X27" t="n">
-        <v>1098.160207328955</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y27" t="n">
-        <v>890.3999085640012</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1849.169209479969</v>
+        <v>198.936391944899</v>
       </c>
       <c r="C28" t="n">
-        <v>1849.169209479969</v>
+        <v>198.936391944899</v>
       </c>
       <c r="D28" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E28" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F28" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G28" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H28" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I28" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J28" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K28" t="n">
-        <v>1894.037176271118</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L28" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M28" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N28" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O28" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P28" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q28" t="n">
-        <v>2403.162327654352</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R28" t="n">
-        <v>2250.500649370103</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S28" t="n">
-        <v>2034.462268080657</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T28" t="n">
-        <v>1849.169209479969</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U28" t="n">
-        <v>1849.169209479969</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V28" t="n">
-        <v>1849.169209479969</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W28" t="n">
-        <v>1849.169209479969</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X28" t="n">
-        <v>1849.169209479969</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="Y28" t="n">
-        <v>1849.169209479969</v>
+        <v>198.936391944899</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1813.742174378966</v>
+        <v>1677.382536391272</v>
       </c>
       <c r="C29" t="n">
-        <v>1813.742174378966</v>
+        <v>1308.420019450861</v>
       </c>
       <c r="D29" t="n">
-        <v>1755.365134694847</v>
+        <v>950.1543208441103</v>
       </c>
       <c r="E29" t="n">
-        <v>1369.576882096602</v>
+        <v>950.1543208441103</v>
       </c>
       <c r="F29" t="n">
-        <v>958.5909773069948</v>
+        <v>950.1543208441103</v>
       </c>
       <c r="G29" t="n">
         <v>540.4033113775685</v>
@@ -6463,10 +6463,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J29" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K29" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L29" t="n">
         <v>795.0052981540045</v>
@@ -6481,7 +6481,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P29" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q29" t="n">
         <v>2440.987626628164</v>
@@ -6496,19 +6496,19 @@
         <v>2440.987626628164</v>
       </c>
       <c r="U29" t="n">
-        <v>2187.207932640046</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V29" t="n">
-        <v>2187.207932640046</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W29" t="n">
-        <v>2187.207932640046</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X29" t="n">
-        <v>1813.742174378966</v>
+        <v>2067.521868367084</v>
       </c>
       <c r="Y29" t="n">
-        <v>1813.742174378966</v>
+        <v>1677.382536391272</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C30" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D30" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E30" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F30" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G30" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H30" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I30" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K30" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L30" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M30" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N30" t="n">
-        <v>1746.002248079783</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O30" t="n">
-        <v>2158.207869599012</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P30" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
@@ -6572,22 +6572,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T30" t="n">
-        <v>2121.953872694535</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U30" t="n">
-        <v>1893.77636876425</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V30" t="n">
-        <v>1658.624260532507</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W30" t="n">
-        <v>1404.386903804306</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X30" t="n">
-        <v>1196.535403598773</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y30" t="n">
-        <v>988.7751048338188</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2259.339161797924</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C31" t="n">
-        <v>2259.339161797924</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D31" t="n">
-        <v>2259.339161797924</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E31" t="n">
-        <v>2259.339161797924</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F31" t="n">
-        <v>2259.339161797924</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G31" t="n">
-        <v>2090.23894662137</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H31" t="n">
-        <v>1931.597794174275</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I31" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J31" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K31" t="n">
-        <v>1894.037176271118</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L31" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M31" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N31" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O31" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P31" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q31" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R31" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S31" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T31" t="n">
-        <v>2440.987626628164</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U31" t="n">
-        <v>2440.987626628164</v>
+        <v>303.5042407384502</v>
       </c>
       <c r="V31" t="n">
-        <v>2440.987626628164</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W31" t="n">
-        <v>2440.987626628164</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X31" t="n">
-        <v>2440.987626628164</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y31" t="n">
-        <v>2440.987626628164</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1856.145045296475</v>
+        <v>1290.782696327151</v>
       </c>
       <c r="C32" t="n">
-        <v>1856.145045296475</v>
+        <v>1203.859608527166</v>
       </c>
       <c r="D32" t="n">
-        <v>1755.365134694847</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E32" t="n">
-        <v>1369.576882096602</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F32" t="n">
-        <v>958.5909773069948</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G32" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H32" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I32" t="n">
         <v>48.81975253256327</v>
@@ -6703,10 +6703,10 @@
         <v>145.966048569732</v>
       </c>
       <c r="K32" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L32" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M32" t="n">
         <v>1237.436361307048</v>
@@ -6718,7 +6718,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P32" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q32" t="n">
         <v>2440.987626628164</v>
@@ -6733,19 +6733,19 @@
         <v>2440.987626628164</v>
       </c>
       <c r="U32" t="n">
-        <v>2187.207932640046</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V32" t="n">
-        <v>1856.145045296475</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W32" t="n">
-        <v>1856.145045296475</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X32" t="n">
-        <v>1856.145045296475</v>
+        <v>2067.521868367084</v>
       </c>
       <c r="Y32" t="n">
-        <v>1856.145045296475</v>
+        <v>1677.382536391272</v>
       </c>
     </row>
     <row r="33">
@@ -6758,22 +6758,22 @@
         <v>722.1845715439331</v>
       </c>
       <c r="C33" t="n">
-        <v>665.3876658914405</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D33" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E33" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F33" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G33" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H33" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I33" t="n">
         <v>48.81975253256327</v>
@@ -6782,19 +6782,19 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K33" t="n">
-        <v>349.2772920404815</v>
+        <v>335.2080329997801</v>
       </c>
       <c r="L33" t="n">
-        <v>728.4044351658747</v>
+        <v>714.3351761251733</v>
       </c>
       <c r="M33" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N33" t="n">
-        <v>1746.002248079783</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O33" t="n">
-        <v>2158.207869599012</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P33" t="n">
         <v>2283.899498973758</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.81975253256327</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="C34" t="n">
-        <v>48.81975253256327</v>
+        <v>346.8095662305</v>
       </c>
       <c r="D34" t="n">
-        <v>48.81975253256327</v>
+        <v>346.8095662305</v>
       </c>
       <c r="E34" t="n">
-        <v>48.81975253256327</v>
+        <v>346.8095662305</v>
       </c>
       <c r="F34" t="n">
-        <v>48.81975253256327</v>
+        <v>346.8095662305</v>
       </c>
       <c r="G34" t="n">
-        <v>48.81975253256327</v>
+        <v>346.8095662305</v>
       </c>
       <c r="H34" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I34" t="n">
         <v>48.81975253256327</v>
@@ -6867,43 +6867,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M34" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N34" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O34" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R34" t="n">
-        <v>640.638169680758</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S34" t="n">
-        <v>640.638169680758</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="T34" t="n">
-        <v>640.638169680758</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="U34" t="n">
-        <v>640.638169680758</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="V34" t="n">
-        <v>640.638169680758</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="W34" t="n">
-        <v>458.4577682608203</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="X34" t="n">
-        <v>230.468217362803</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="Y34" t="n">
-        <v>230.468217362803</v>
+        <v>487.9764913965093</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1593.268879790881</v>
+        <v>1002.077492925527</v>
       </c>
       <c r="C35" t="n">
-        <v>1593.268879790881</v>
+        <v>1002.077492925527</v>
       </c>
       <c r="D35" t="n">
-        <v>1593.268879790881</v>
+        <v>1002.077492925527</v>
       </c>
       <c r="E35" t="n">
-        <v>1207.480627192637</v>
+        <v>1002.077492925527</v>
       </c>
       <c r="F35" t="n">
-        <v>796.4947224030295</v>
+        <v>591.0915881359199</v>
       </c>
       <c r="G35" t="n">
-        <v>378.3070564736033</v>
+        <v>172.9039222064936</v>
       </c>
       <c r="H35" t="n">
         <v>48.81975253256327</v>
@@ -6937,19 +6937,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J35" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K35" t="n">
         <v>412.3079679977591</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N35" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O35" t="n">
         <v>2037.925350935285</v>
@@ -6964,25 +6964,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S35" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T35" t="n">
-        <v>1971.003775293977</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U35" t="n">
-        <v>1717.224081305859</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="V35" t="n">
-        <v>1593.268879790881</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="W35" t="n">
-        <v>1593.268879790881</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="X35" t="n">
-        <v>1593.268879790881</v>
+        <v>1778.816664965461</v>
       </c>
       <c r="Y35" t="n">
-        <v>1593.268879790881</v>
+        <v>1388.677332989649</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>722.1845715439331</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C36" t="n">
-        <v>547.7315422628061</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D36" t="n">
-        <v>398.7971326015548</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E36" t="n">
-        <v>239.5596775960993</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F36" t="n">
-        <v>93.02511962298431</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G36" t="n">
-        <v>48.81975253256327</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H36" t="n">
         <v>48.81975253256327</v>
@@ -7019,49 +7019,49 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K36" t="n">
-        <v>285.1110033225003</v>
+        <v>174.1773125904007</v>
       </c>
       <c r="L36" t="n">
-        <v>664.2381464478935</v>
+        <v>553.3044557157939</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.640861843456</v>
+        <v>1047.707171111357</v>
       </c>
       <c r="N36" t="n">
-        <v>1681.835959361802</v>
+        <v>1570.902268629703</v>
       </c>
       <c r="O36" t="n">
-        <v>1970.07121469245</v>
+        <v>1983.107890148932</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.899498973758</v>
+        <v>2296.936174430239</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S36" t="n">
-        <v>2222.939999577549</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="T36" t="n">
-        <v>2023.578676424718</v>
+        <v>2224.002748345386</v>
       </c>
       <c r="U36" t="n">
-        <v>1795.401172494432</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V36" t="n">
-        <v>1560.249064262689</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W36" t="n">
-        <v>1306.011707534488</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X36" t="n">
-        <v>1098.160207328955</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y36" t="n">
-        <v>890.3999085640012</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1849.169209479969</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="C37" t="n">
-        <v>1849.169209479969</v>
+        <v>182.5228992302436</v>
       </c>
       <c r="D37" t="n">
-        <v>1849.169209479969</v>
+        <v>182.5228992302436</v>
       </c>
       <c r="E37" t="n">
-        <v>1849.169209479969</v>
+        <v>182.5228992302436</v>
       </c>
       <c r="F37" t="n">
-        <v>1849.169209479969</v>
+        <v>182.5228992302436</v>
       </c>
       <c r="G37" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H37" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I37" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J37" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K37" t="n">
-        <v>1894.037176271118</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L37" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M37" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N37" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O37" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P37" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q37" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R37" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S37" t="n">
-        <v>2251.610253453739</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T37" t="n">
-        <v>2251.610253453739</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U37" t="n">
-        <v>2251.610253453739</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V37" t="n">
-        <v>2251.610253453739</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W37" t="n">
-        <v>2251.610253453739</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="X37" t="n">
-        <v>2251.610253453739</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="Y37" t="n">
-        <v>2030.817674310209</v>
+        <v>351.4590821581505</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2440.987626628164</v>
+        <v>1022.774595916493</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.630833301596</v>
+        <v>1022.774595916493</v>
       </c>
       <c r="D38" t="n">
-        <v>1755.365134694846</v>
+        <v>1022.774595916493</v>
       </c>
       <c r="E38" t="n">
-        <v>1369.576882096602</v>
+        <v>1022.774595916493</v>
       </c>
       <c r="F38" t="n">
-        <v>958.5909773069941</v>
+        <v>611.7886911268856</v>
       </c>
       <c r="G38" t="n">
-        <v>540.4033113775679</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H38" t="n">
-        <v>210.9160074365279</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I38" t="n">
-        <v>48.81975253256279</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J38" t="n">
-        <v>145.9660485697315</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977586</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540041</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N38" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O38" t="n">
         <v>2037.925350935285</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S38" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T38" t="n">
-        <v>2440.987626628164</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U38" t="n">
-        <v>2440.987626628164</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="V38" t="n">
-        <v>2440.987626628164</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="W38" t="n">
-        <v>2440.987626628164</v>
+        <v>1799.513767956427</v>
       </c>
       <c r="X38" t="n">
-        <v>2440.987626628164</v>
+        <v>1799.513767956427</v>
       </c>
       <c r="Y38" t="n">
-        <v>2440.987626628164</v>
+        <v>1409.374435980615</v>
       </c>
     </row>
     <row r="39">
@@ -7232,19 +7232,19 @@
         <v>722.1845715439331</v>
       </c>
       <c r="C39" t="n">
-        <v>547.7315422628061</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="D39" t="n">
-        <v>398.7971326015548</v>
+        <v>573.2501618826818</v>
       </c>
       <c r="E39" t="n">
-        <v>253.0161014526182</v>
+        <v>414.0127068772263</v>
       </c>
       <c r="F39" t="n">
-        <v>253.0161014526182</v>
+        <v>267.4781489041113</v>
       </c>
       <c r="G39" t="n">
-        <v>114.9862139017798</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H39" t="n">
         <v>114.9862139017798</v>
@@ -7253,16 +7253,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J39" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K39" t="n">
-        <v>339.8150790146477</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L39" t="n">
-        <v>718.9422221400409</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M39" t="n">
-        <v>1213.344937535604</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N39" t="n">
         <v>1557.865593173221</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2186.303138422277</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="C40" t="n">
-        <v>2186.303138422277</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="D40" t="n">
-        <v>2186.303138422277</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="E40" t="n">
-        <v>2038.390044839884</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="F40" t="n">
-        <v>1891.500097341973</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G40" t="n">
-        <v>1849.169209479969</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H40" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I40" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J40" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K40" t="n">
-        <v>1894.037176271117</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L40" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M40" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N40" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O40" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U40" t="n">
-        <v>2440.987626628164</v>
+        <v>496.8780750166192</v>
       </c>
       <c r="V40" t="n">
-        <v>2186.303138422277</v>
+        <v>496.8780750166192</v>
       </c>
       <c r="W40" t="n">
-        <v>2186.303138422277</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="X40" t="n">
-        <v>2186.303138422277</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="Y40" t="n">
-        <v>2186.303138422277</v>
+        <v>207.4609049796586</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>938.0140410570359</v>
+        <v>1187.033872869333</v>
       </c>
       <c r="C41" t="n">
-        <v>569.0515241166243</v>
+        <v>818.0713559289213</v>
       </c>
       <c r="D41" t="n">
-        <v>210.7858255098737</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="E41" t="n">
-        <v>48.81975253256327</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F41" t="n">
         <v>48.81975253256327</v>
@@ -7411,10 +7411,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J41" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K41" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L41" t="n">
         <v>795.0052981540045</v>
@@ -7423,7 +7423,7 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N41" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O41" t="n">
         <v>2037.925350935285</v>
@@ -7447,16 +7447,16 @@
         <v>2440.987626628164</v>
       </c>
       <c r="V41" t="n">
-        <v>2440.987626628164</v>
+        <v>2337.238803170346</v>
       </c>
       <c r="W41" t="n">
-        <v>2088.218971358049</v>
+        <v>2337.238803170346</v>
       </c>
       <c r="X41" t="n">
-        <v>1714.753213096969</v>
+        <v>1963.773044909266</v>
       </c>
       <c r="Y41" t="n">
-        <v>1324.613881121158</v>
+        <v>1573.633712933455</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C42" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D42" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E42" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F42" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G42" t="n">
-        <v>221.5857653620315</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I42" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J42" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K42" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L42" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M42" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N42" t="n">
-        <v>1746.002248079784</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O42" t="n">
-        <v>2158.207869599013</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P42" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q42" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R42" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S42" t="n">
-        <v>2440.987626628164</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T42" t="n">
-        <v>2290.169209714603</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U42" t="n">
-        <v>2061.991705784318</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.839597552575</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.602240824373</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.750740618841</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.1684137834047</v>
+        <v>198.936391944899</v>
       </c>
       <c r="C43" t="n">
-        <v>188.1684137834047</v>
+        <v>198.936391944899</v>
       </c>
       <c r="D43" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E43" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F43" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G43" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H43" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I43" t="n">
         <v>48.81975253256327</v>
@@ -7596,25 +7596,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T43" t="n">
-        <v>412.9009368039367</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U43" t="n">
-        <v>188.1684137834047</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="V43" t="n">
-        <v>188.1684137834047</v>
+        <v>198.936391944899</v>
       </c>
       <c r="W43" t="n">
-        <v>188.1684137834047</v>
+        <v>198.936391944899</v>
       </c>
       <c r="X43" t="n">
-        <v>188.1684137834047</v>
+        <v>198.936391944899</v>
       </c>
       <c r="Y43" t="n">
-        <v>188.1684137834047</v>
+        <v>198.936391944899</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>820.7988449929635</v>
+        <v>1698.079639382237</v>
       </c>
       <c r="C44" t="n">
-        <v>459.8056573221708</v>
+        <v>1329.117122441826</v>
       </c>
       <c r="D44" t="n">
-        <v>459.8056573221708</v>
+        <v>970.8514238350754</v>
       </c>
       <c r="E44" t="n">
-        <v>459.8056573221708</v>
+        <v>585.0631712368311</v>
       </c>
       <c r="F44" t="n">
-        <v>48.81975253256327</v>
+        <v>585.0631712368311</v>
       </c>
       <c r="G44" t="n">
-        <v>48.81975253256327</v>
+        <v>166.8755053074048</v>
       </c>
       <c r="H44" t="n">
         <v>48.81975253256327</v>
@@ -7648,10 +7648,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J44" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K44" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L44" t="n">
         <v>795.0052981540045</v>
@@ -7660,40 +7660,40 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N44" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O44" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P44" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q44" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S44" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T44" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U44" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V44" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W44" t="n">
-        <v>1971.003775293977</v>
+        <v>2088.218971358049</v>
       </c>
       <c r="X44" t="n">
-        <v>1597.538017032897</v>
+        <v>2088.218971358049</v>
       </c>
       <c r="Y44" t="n">
-        <v>1207.398685057085</v>
+        <v>1698.079639382237</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C45" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D45" t="n">
-        <v>665.3876658914405</v>
+        <v>518.8531079183253</v>
       </c>
       <c r="E45" t="n">
-        <v>506.150210885985</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="F45" t="n">
         <v>359.6156529128699</v>
@@ -7727,22 +7727,22 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K45" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L45" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M45" t="n">
-        <v>1158.640861843456</v>
+        <v>1213.344937535604</v>
       </c>
       <c r="N45" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O45" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P45" t="n">
         <v>2283.899498973758</v>
@@ -7751,28 +7751,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R45" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S45" t="n">
-        <v>2440.987626628164</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T45" t="n">
-        <v>2290.169209714603</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U45" t="n">
-        <v>2061.991705784318</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.839597552575</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.602240824373</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.750740618841</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>198.936391944899</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="C46" t="n">
-        <v>198.936391944899</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="D46" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E46" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F46" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G46" t="n">
         <v>48.81975253256327</v>
@@ -7836,22 +7836,22 @@
         <v>487.9764913965093</v>
       </c>
       <c r="T46" t="n">
-        <v>426.9259428429164</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="U46" t="n">
-        <v>426.9259428429164</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="V46" t="n">
-        <v>426.9259428429164</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="W46" t="n">
-        <v>426.9259428429164</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="X46" t="n">
-        <v>198.936391944899</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="Y46" t="n">
-        <v>198.936391944899</v>
+        <v>260.2392585196878</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8072,10 +8072,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>74.42821185443489</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9968,7 +9968,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>268.6397271670517</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.40241131725696</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10445,7 +10445,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>128.4257434817937</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.27660229194304</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>72.7876281949213</v>
       </c>
       <c r="C11" t="n">
-        <v>41.18966637770694</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.4184586216305</v>
@@ -23317,16 +23317,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>35.81287827175917</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>48.05747717687808</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>74.16824395813761</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>21.77755170580345</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R13" t="n">
         <v>151.1350615014064</v>
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>244.1170698396849</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>183.9870375653103</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23624,16 +23624,16 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S15" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>48.05747717687808</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>9.48352105163039</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>74.16824395813738</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2872966473816</v>
+        <v>159.6512873649574</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23737,13 +23737,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>24.64709960344675</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>289.4805438259484</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23822,13 +23822,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>141.3464342174088</v>
       </c>
       <c r="G18" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>65.50479675552441</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R19" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>76.98198572012828</v>
       </c>
       <c r="V19" t="n">
-        <v>105.5752683717205</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,16 +23977,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>79.69374995762547</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>37.63196437773502</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24062,10 +24062,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>48.05747717687808</v>
+        <v>21.74148333600732</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.4092130247883</v>
@@ -24147,7 +24147,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I22" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>52.22830032617343</v>
@@ -24180,7 +24180,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4598605480533</v>
+        <v>217.9852858973861</v>
       </c>
       <c r="U22" t="n">
         <v>286.2872966473816</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>38.22605594635644</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>152.8717262811006</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>23.54832408064414</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S23" t="n">
         <v>179.4658614532381</v>
@@ -24262,19 +24262,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24290,19 +24290,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>13.32185961795372</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>59.40616540829444</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,19 +24375,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>74.16824395813761</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,16 +24408,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R25" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S25" t="n">
-        <v>213.8779974765521</v>
+        <v>178.6906532527611</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2872966473816</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>14.08815377057323</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>276.6048766942824</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24536,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>105.5335559456492</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>35.81287827175935</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24645,16 +24645,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
-        <v>42.01973253337215</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
         <v>286.2872966473816</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>67.82289173018521</v>
       </c>
     </row>
     <row r="29">
@@ -24682,19 +24682,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>296.8897723334043</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>8.352289898255549</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S29" t="n">
         <v>179.4658614532381</v>
@@ -24736,7 +24736,7 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24773,13 +24773,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>97.39144430711919</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I31" t="n">
-        <v>56.35087579097031</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J31" t="n">
         <v>52.22830032617343</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R31" t="n">
         <v>151.1350615014064</v>
@@ -24891,13 +24891,13 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2872966473816</v>
+        <v>177.9845675425499</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>279.2190348490224</v>
       </c>
       <c r="D32" t="n">
-        <v>254.9109301250704</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S32" t="n">
         <v>179.4658614532381</v>
@@ -24973,19 +24973,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24998,10 +24998,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>116.4795623923481</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25010,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>27.49156518427856</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>52.22830032617343</v>
@@ -25119,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R34" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>213.8779974765521</v>
@@ -25137,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>106.1644009308527</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,7 +25162,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>203.3491029244385</v>
       </c>
       <c r="I35" t="n">
         <v>160.4752923549255</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>205.0366089703068</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>65.50479675552441</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>141.3464342174082</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4092130247883</v>
+        <v>35.04309779408482</v>
       </c>
       <c r="H37" t="n">
         <v>157.0547409226243</v>
@@ -25356,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R37" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
-        <v>26.39439803387143</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>41.18966637770603</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>17.14183241667837</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2418970482362</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25472,22 +25472,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>13.32185961795372</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>91.216128968671</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>125.5016340414038</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>137.955174638333</v>
@@ -25605,13 +25605,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>143.9648029298839</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25636,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>221.5839578247244</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>414.005789270132</v>
@@ -25687,10 +25687,10 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>225.0409232468958</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25721,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>61.77024252613235</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>48.05747717687808</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,7 +25806,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J43" t="n">
         <v>52.22830032617343</v>
@@ -25836,16 +25836,16 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
-        <v>63.80209885705492</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>28.73088084187958</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>7.889635976922818</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>326.1924309016296</v>
+        <v>209.3172356545364</v>
       </c>
       <c r="I44" t="n">
         <v>160.4752923549255</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
         <v>251.2418970482362</v>
@@ -25927,10 +25927,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25949,13 +25949,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>118.8554155636028</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>48.05747717687808</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>125.3507231961628</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>157.0547409226243</v>
@@ -26076,7 +26076,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>165.0198174799962</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2872966473816</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>596513.2656064923</v>
+        <v>596513.2656064925</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>596513.2656064924</v>
+        <v>596513.2656064925</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>596513.2656064924</v>
+        <v>596513.2656064925</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>596513.2656064923</v>
+        <v>596513.2656064924</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>596513.2656064923</v>
+        <v>596513.2656064924</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>596513.2656064924</v>
+        <v>596513.2656064925</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>596513.2656064924</v>
+        <v>596513.2656064923</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>596513.2656064925</v>
+        <v>596513.2656064923</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117841</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117842</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.150411784</v>
-      </c>
       <c r="D2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
+        <v>352485.1114947454</v>
+      </c>
+      <c r="F2" t="n">
+        <v>352485.1114947454</v>
+      </c>
+      <c r="G2" t="n">
         <v>352485.1114947453</v>
       </c>
-      <c r="F2" t="n">
-        <v>352485.1114947453</v>
-      </c>
-      <c r="G2" t="n">
-        <v>352485.1114947454</v>
-      </c>
       <c r="H2" t="n">
-        <v>352485.1114947454</v>
+        <v>352485.1114947452</v>
       </c>
       <c r="I2" t="n">
         <v>352485.1114947454</v>
@@ -26340,19 +26340,19 @@
         <v>352485.1114947452</v>
       </c>
       <c r="K2" t="n">
+        <v>352485.1114947452</v>
+      </c>
+      <c r="L2" t="n">
+        <v>352485.1114947452</v>
+      </c>
+      <c r="M2" t="n">
+        <v>352485.1114947454</v>
+      </c>
+      <c r="N2" t="n">
         <v>352485.1114947453</v>
       </c>
-      <c r="L2" t="n">
-        <v>352485.1114947454</v>
-      </c>
-      <c r="M2" t="n">
-        <v>352485.1114947453</v>
-      </c>
-      <c r="N2" t="n">
-        <v>352485.1114947454</v>
-      </c>
       <c r="O2" t="n">
-        <v>352485.1114947454</v>
+        <v>352485.1114947452</v>
       </c>
       <c r="P2" t="n">
         <v>352485.1114947454</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327801</v>
+        <v>369435.2991327802</v>
       </c>
       <c r="F3" t="n">
-        <v>8.522183634340765e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109307</v>
+        <v>92014.2452810931</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279125.0601321633</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="C4" t="n">
         <v>279125.0601321634</v>
       </c>
       <c r="D4" t="n">
-        <v>279125.0601321633</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="E4" t="n">
-        <v>463.7092767442725</v>
+        <v>463.7092767442726</v>
       </c>
       <c r="F4" t="n">
         <v>463.7092767442726</v>
@@ -26438,19 +26438,19 @@
         <v>463.7092767442726</v>
       </c>
       <c r="I4" t="n">
-        <v>463.7092767442725</v>
+        <v>463.7092767442726</v>
       </c>
       <c r="J4" t="n">
-        <v>463.7092767442725</v>
+        <v>463.7092767442726</v>
       </c>
       <c r="K4" t="n">
-        <v>463.7092767442725</v>
+        <v>463.7092767442726</v>
       </c>
       <c r="L4" t="n">
         <v>463.7092767442726</v>
       </c>
       <c r="M4" t="n">
-        <v>463.7092767442725</v>
+        <v>463.7092767442726</v>
       </c>
       <c r="N4" t="n">
         <v>463.7092767442726</v>
@@ -26459,7 +26459,7 @@
         <v>463.7092767442726</v>
       </c>
       <c r="P4" t="n">
-        <v>463.7092767442725</v>
+        <v>463.7092767442726</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="F5" t="n">
         <v>44136.03802033842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125501.3899843114</v>
+        <v>125501.3899843112</v>
       </c>
       <c r="C6" t="n">
-        <v>206270.8215158589</v>
+        <v>206270.8215158591</v>
       </c>
       <c r="D6" t="n">
-        <v>206270.821515859</v>
+        <v>206270.8215158592</v>
       </c>
       <c r="E6" t="n">
-        <v>-61549.93493511745</v>
+        <v>-68518.85950884977</v>
       </c>
       <c r="F6" t="n">
-        <v>307885.3641976626</v>
+        <v>300916.4396239304</v>
       </c>
       <c r="G6" t="n">
-        <v>307885.3641976627</v>
+        <v>300916.4396239304</v>
       </c>
       <c r="H6" t="n">
-        <v>307885.3641976627</v>
+        <v>300916.4396239303</v>
       </c>
       <c r="I6" t="n">
-        <v>307885.3641976627</v>
+        <v>300916.4396239304</v>
       </c>
       <c r="J6" t="n">
-        <v>244825.4215985563</v>
+        <v>237856.4970248241</v>
       </c>
       <c r="K6" t="n">
-        <v>307885.3641976626</v>
+        <v>300916.4396239303</v>
       </c>
       <c r="L6" t="n">
-        <v>307885.3641976627</v>
+        <v>300916.4396239303</v>
       </c>
       <c r="M6" t="n">
-        <v>215871.1189165695</v>
+        <v>208902.1943428373</v>
       </c>
       <c r="N6" t="n">
-        <v>307885.3641976627</v>
+        <v>300916.4396239304</v>
       </c>
       <c r="O6" t="n">
-        <v>307885.3641976627</v>
+        <v>300916.4396239303</v>
       </c>
       <c r="P6" t="n">
-        <v>307885.3641976627</v>
+        <v>300916.4396239304</v>
       </c>
     </row>
   </sheetData>
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="F4" t="n">
         <v>610.2469066570409</v>
@@ -26971,7 +26971,7 @@
         <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
-        <v>1.078150109664906e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>175.1662893844119</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,10 +27399,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>10.31505646155395</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27438,16 +27438,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27469,13 +27469,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>71.93757317241973</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>69.75232559035277</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27560,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,19 +27578,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>162.4565364694636</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>352.4870564325794</v>
+        <v>214.5672278460424</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27672,19 +27672,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27703,16 +27703,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>82.17265245574089</v>
+        <v>67.24649549306409</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27760,10 +27760,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27785,13 +27785,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>37.22501299855256</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,19 +27864,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>359.7625155545542</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>342.8322390905863</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,13 +27897,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,25 +27931,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>135.6716239354609</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>91.25587509658735</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27982,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27997,7 +27997,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28067,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="11">
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H11" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I11" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J11" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K11" t="n">
         <v>164.9766803203078</v>
@@ -31773,7 +31773,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N11" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O11" t="n">
         <v>218.5211886152591</v>
@@ -31785,13 +31785,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R11" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S11" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T11" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U11" t="n">
         <v>0.1037558596002446</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H12" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I12" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K12" t="n">
-        <v>112.0542330627269</v>
+        <v>102.4964421275412</v>
       </c>
       <c r="L12" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M12" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N12" t="n">
-        <v>180.479234222958</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>165.1032398336026</v>
@@ -31861,10 +31861,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R12" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S12" t="n">
         <v>12.88941730778304</v>
@@ -31873,7 +31873,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,40 +31910,40 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H13" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I13" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J13" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K13" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L13" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M13" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N13" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O13" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P13" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R13" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S13" t="n">
         <v>10.13860056042011</v>
@@ -31952,7 +31952,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32095,7 +32095,7 @@
         <v>165.1032398336026</v>
       </c>
       <c r="P15" t="n">
-        <v>132.5099057252086</v>
+        <v>7.287313615530792</v>
       </c>
       <c r="Q15" t="n">
         <v>88.57936276876457</v>
@@ -32314,22 +32314,22 @@
         <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472367</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L18" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
-        <v>162.6572933428076</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N18" t="n">
         <v>180.479234222958</v>
       </c>
       <c r="O18" t="n">
-        <v>165.1032398336026</v>
+        <v>39.88064772392477</v>
       </c>
       <c r="P18" t="n">
         <v>132.5099057252086</v>
@@ -32554,7 +32554,7 @@
         <v>65.56102437472367</v>
       </c>
       <c r="K21" t="n">
-        <v>112.054233062727</v>
+        <v>102.4964421275413</v>
       </c>
       <c r="L21" t="n">
         <v>150.670744704085</v>
@@ -32563,7 +32563,7 @@
         <v>175.8256523897584</v>
       </c>
       <c r="N21" t="n">
-        <v>180.479234222958</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>165.1032398336026</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H23" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I23" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J23" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K23" t="n">
         <v>164.9766803203078</v>
@@ -32721,7 +32721,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N23" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O23" t="n">
         <v>218.5211886152591</v>
@@ -32733,13 +32733,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R23" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S23" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T23" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U23" t="n">
         <v>0.1037558596002446</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H24" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I24" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J24" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>72.68795260866824</v>
       </c>
       <c r="L24" t="n">
-        <v>137.5023856571342</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N24" t="n">
         <v>180.479234222958</v>
@@ -32809,10 +32809,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R24" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S24" t="n">
         <v>12.88941730778304</v>
@@ -32821,7 +32821,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,40 +32858,40 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H25" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I25" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J25" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K25" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L25" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M25" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N25" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O25" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P25" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R25" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S25" t="n">
         <v>10.13860056042011</v>
@@ -32900,7 +32900,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H26" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I26" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J26" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K26" t="n">
         <v>164.9766803203078</v>
@@ -32958,7 +32958,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N26" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O26" t="n">
         <v>218.5211886152591</v>
@@ -32970,13 +32970,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R26" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S26" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T26" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U26" t="n">
         <v>0.1037558596002446</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H27" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I27" t="n">
         <v>23.89183609589066</v>
@@ -33028,13 +33028,13 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L27" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M27" t="n">
-        <v>175.8256523897583</v>
+        <v>50.60306028008051</v>
       </c>
       <c r="N27" t="n">
         <v>180.479234222958</v>
@@ -33046,10 +33046,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R27" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S27" t="n">
         <v>12.88941730778304</v>
@@ -33058,7 +33058,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,40 +33095,40 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H28" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I28" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J28" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K28" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L28" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M28" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N28" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O28" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P28" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R28" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S28" t="n">
         <v>10.13860056042011</v>
@@ -33137,7 +33137,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H29" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I29" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J29" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K29" t="n">
         <v>164.9766803203078</v>
@@ -33195,7 +33195,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N29" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O29" t="n">
         <v>218.5211886152591</v>
@@ -33207,13 +33207,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R29" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S29" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T29" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U29" t="n">
         <v>0.1037558596002446</v>
@@ -33253,40 +33253,40 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H30" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I30" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J30" t="n">
-        <v>65.56102437472366</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L30" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M30" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N30" t="n">
-        <v>180.479234222958</v>
+        <v>55.25664211328007</v>
       </c>
       <c r="O30" t="n">
         <v>165.1032398336026</v>
       </c>
       <c r="P30" t="n">
-        <v>101.1477569856571</v>
+        <v>132.5099057252086</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R30" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S30" t="n">
         <v>12.88941730778304</v>
@@ -33295,7 +33295,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,40 +33332,40 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H31" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I31" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J31" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K31" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L31" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M31" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N31" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O31" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P31" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R31" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S31" t="n">
         <v>10.13860056042011</v>
@@ -33374,7 +33374,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H32" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I32" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J32" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K32" t="n">
         <v>164.9766803203078</v>
@@ -33432,7 +33432,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N32" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O32" t="n">
         <v>218.5211886152591</v>
@@ -33444,13 +33444,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R32" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S32" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T32" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U32" t="n">
         <v>0.1037558596002446</v>
@@ -33490,25 +33490,25 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H33" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I33" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J33" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K33" t="n">
-        <v>112.0542330627269</v>
+        <v>97.84286029434168</v>
       </c>
       <c r="L33" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M33" t="n">
-        <v>175.8256523897583</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>180.479234222958</v>
@@ -33520,10 +33520,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R33" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S33" t="n">
         <v>12.88941730778304</v>
@@ -33532,7 +33532,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,40 +33569,40 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H34" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I34" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J34" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K34" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L34" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M34" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N34" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O34" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P34" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R34" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S34" t="n">
         <v>10.13860056042011</v>
@@ -33611,7 +33611,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H35" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I35" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J35" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K35" t="n">
         <v>164.9766803203078</v>
@@ -33669,7 +33669,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N35" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O35" t="n">
         <v>218.5211886152591</v>
@@ -33681,13 +33681,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R35" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S35" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T35" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U35" t="n">
         <v>0.1037558596002446</v>
@@ -33727,40 +33727,40 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H36" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I36" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J36" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K36" t="n">
-        <v>112.0542330627269</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M36" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N36" t="n">
         <v>180.479234222958</v>
       </c>
       <c r="O36" t="n">
-        <v>39.88064772392477</v>
+        <v>165.1032398336026</v>
       </c>
       <c r="P36" t="n">
         <v>132.5099057252086</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.57936276876455</v>
+        <v>75.41100372181322</v>
       </c>
       <c r="R36" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S36" t="n">
         <v>12.88941730778304</v>
@@ -33769,7 +33769,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,40 +33806,40 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H37" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I37" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J37" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K37" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L37" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M37" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N37" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O37" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P37" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R37" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S37" t="n">
         <v>10.13860056042011</v>
@@ -33848,7 +33848,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33973,19 +33973,19 @@
         <v>23.89183609589066</v>
       </c>
       <c r="J39" t="n">
-        <v>65.56102437472367</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>102.4964421275413</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L39" t="n">
-        <v>150.670744704085</v>
+        <v>25.44815259440708</v>
       </c>
       <c r="M39" t="n">
         <v>175.8256523897584</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>180.479234222958</v>
       </c>
       <c r="O39" t="n">
         <v>165.1032398336026</v>
@@ -34149,7 +34149,7 @@
         <v>218.5211886152591</v>
       </c>
       <c r="P41" t="n">
-        <v>186.5027788167461</v>
+        <v>186.5027788167457</v>
       </c>
       <c r="Q41" t="n">
         <v>140.055819792574</v>
@@ -34210,7 +34210,7 @@
         <v>23.89183609589066</v>
       </c>
       <c r="J42" t="n">
-        <v>65.56102437472367</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>112.054233062727</v>
@@ -34219,7 +34219,7 @@
         <v>150.670744704085</v>
       </c>
       <c r="M42" t="n">
-        <v>175.8256523897584</v>
+        <v>50.60306028008051</v>
       </c>
       <c r="N42" t="n">
         <v>180.479234222958</v>
@@ -34228,7 +34228,7 @@
         <v>165.1032398336026</v>
       </c>
       <c r="P42" t="n">
-        <v>101.1477569856567</v>
+        <v>132.5099057252086</v>
       </c>
       <c r="Q42" t="n">
         <v>88.57936276876457</v>
@@ -34389,7 +34389,7 @@
         <v>186.5027788167461</v>
       </c>
       <c r="Q44" t="n">
-        <v>140.0558197925737</v>
+        <v>140.055819792574</v>
       </c>
       <c r="R44" t="n">
         <v>81.46942519517339</v>
@@ -34456,16 +34456,16 @@
         <v>150.670744704085</v>
       </c>
       <c r="M45" t="n">
-        <v>175.8256523897584</v>
+        <v>166.2678614545727</v>
       </c>
       <c r="N45" t="n">
-        <v>180.479234222958</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>165.1032398336026</v>
       </c>
       <c r="P45" t="n">
-        <v>7.287313615530792</v>
+        <v>132.5099057252086</v>
       </c>
       <c r="Q45" t="n">
         <v>88.57936276876457</v>
@@ -34710,10 +34710,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34783,7 +34783,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34792,10 +34792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K11" t="n">
         <v>269.032241846492</v>
@@ -35418,7 +35418,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M11" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N11" t="n">
         <v>439.3515785419015</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K12" t="n">
-        <v>238.6780311009465</v>
+        <v>229.1202401657608</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M12" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N12" t="n">
-        <v>528.4798964831782</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
         <v>416.3693146658877</v>
@@ -35509,7 +35509,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L13" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M13" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N13" t="n">
         <v>133.158287785359</v>
@@ -35585,7 +35585,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P13" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L15" t="n">
         <v>382.95671022767</v>
@@ -35743,7 +35743,7 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P15" t="n">
-        <v>316.9982669508155</v>
+        <v>191.7756748411377</v>
       </c>
       <c r="Q15" t="n">
         <v>158.6748764185921</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M18" t="n">
-        <v>486.2283231707892</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N18" t="n">
         <v>528.4798964831782</v>
       </c>
       <c r="O18" t="n">
-        <v>416.3693146658877</v>
+        <v>291.1467225562099</v>
       </c>
       <c r="P18" t="n">
         <v>316.9982669508155</v>
@@ -36202,7 +36202,7 @@
         <v>64.81443304846582</v>
       </c>
       <c r="K21" t="n">
-        <v>48.64100594280286</v>
+        <v>229.1202401657609</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
@@ -36211,7 +36211,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N21" t="n">
-        <v>528.4798964831782</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
         <v>416.3693146658877</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K23" t="n">
         <v>269.032241846492</v>
@@ -36366,7 +36366,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M23" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N23" t="n">
         <v>439.3515785419015</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>199.3117506468878</v>
       </c>
       <c r="L24" t="n">
-        <v>369.7883511807192</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N24" t="n">
         <v>528.4798964831782</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L25" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M25" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N25" t="n">
         <v>133.158287785359</v>
@@ -36533,7 +36533,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P25" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K26" t="n">
         <v>269.032241846492</v>
@@ -36603,7 +36603,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M26" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N26" t="n">
         <v>439.3515785419015</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L27" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M27" t="n">
-        <v>499.3966822177399</v>
+        <v>374.1740901080621</v>
       </c>
       <c r="N27" t="n">
         <v>528.4798964831782</v>
       </c>
       <c r="O27" t="n">
-        <v>291.1467225562099</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P27" t="n">
         <v>316.9982669508155</v>
@@ -36755,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L28" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M28" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N28" t="n">
         <v>133.158287785359</v>
@@ -36770,7 +36770,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P28" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K29" t="n">
         <v>269.032241846492</v>
@@ -36840,7 +36840,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M29" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N29" t="n">
         <v>439.3515785419015</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L30" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M30" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N30" t="n">
-        <v>528.4798964831782</v>
+        <v>403.2573043735003</v>
       </c>
       <c r="O30" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P30" t="n">
-        <v>285.636118211264</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L31" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M31" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N31" t="n">
         <v>133.158287785359</v>
@@ -37007,7 +37007,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P31" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K32" t="n">
         <v>269.032241846492</v>
@@ -37077,7 +37077,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M32" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N32" t="n">
         <v>439.3515785419015</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>64.8144330484658</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K33" t="n">
-        <v>238.6780311009465</v>
+        <v>224.4666583325613</v>
       </c>
       <c r="L33" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M33" t="n">
-        <v>499.3966822177399</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
         <v>528.4798964831782</v>
@@ -37165,7 +37165,7 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P33" t="n">
-        <v>126.9612417926721</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
         <v>158.6748764185921</v>
@@ -37229,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L34" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M34" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N34" t="n">
         <v>133.158287785359</v>
@@ -37244,7 +37244,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P34" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K35" t="n">
         <v>269.032241846492</v>
@@ -37314,7 +37314,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M35" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N35" t="n">
         <v>439.3515785419015</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>238.6780311009465</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M36" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N36" t="n">
         <v>528.4798964831782</v>
       </c>
       <c r="O36" t="n">
-        <v>291.1467225562099</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P36" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.6748764185921</v>
+        <v>145.5065173716408</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L37" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M37" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N37" t="n">
         <v>133.158287785359</v>
@@ -37481,7 +37481,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P37" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>229.1202401657609</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L39" t="n">
-        <v>382.95671022767</v>
+        <v>257.7341181179921</v>
       </c>
       <c r="M39" t="n">
         <v>499.39668221774</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O39" t="n">
         <v>416.3693146658877</v>
@@ -37797,7 +37797,7 @@
         <v>369.2231584563177</v>
       </c>
       <c r="P41" t="n">
-        <v>277.0684912329592</v>
+        <v>277.0684912329588</v>
       </c>
       <c r="Q41" t="n">
         <v>130.0651205780292</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>238.6780311009466</v>
@@ -37867,7 +37867,7 @@
         <v>382.95671022767</v>
       </c>
       <c r="M42" t="n">
-        <v>499.39668221774</v>
+        <v>374.1740901080621</v>
       </c>
       <c r="N42" t="n">
         <v>528.4798964831782</v>
@@ -37876,10 +37876,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P42" t="n">
-        <v>285.6361182112636</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>277.0684912329592</v>
       </c>
       <c r="Q44" t="n">
-        <v>130.0651205780289</v>
+        <v>130.0651205780292</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38104,16 +38104,16 @@
         <v>382.95671022767</v>
       </c>
       <c r="M45" t="n">
-        <v>499.39668221774</v>
+        <v>489.8388912825543</v>
       </c>
       <c r="N45" t="n">
-        <v>528.4798964831782</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P45" t="n">
-        <v>191.7756748411377</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
         <v>158.6748764185921</v>
